--- a/gamedata/character.xlsx
+++ b/gamedata/character.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>表格 1</t>
   </si>
@@ -19,10 +19,19 @@
     <t>Cid</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Attack</t>
+  </si>
+  <si>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>小怪1</t>
   </si>
 </sst>
 </file>
@@ -32,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -44,13 +53,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,8 +83,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -97,66 +117,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -164,22 +146,112 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -189,50 +261,68 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -252,8 +342,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -272,10 +364,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -452,11 +544,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -465,34 +560,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -740,12 +835,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1036,7 +1131,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1314,248 +1409,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="11">
         <v>30</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15">
         <v>50</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="16">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/gamedata/character.xlsx
+++ b/gamedata/character.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Cid</t>
   </si>
@@ -85,12 +82,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -117,36 +114,29 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -155,13 +145,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,88 +190,13 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -261,68 +206,56 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -342,12 +275,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1409,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1419,266 +1351,251 @@
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="8">
-        <v>1</v>
+      <c r="C2" s="6">
+        <v>100</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="D2" s="7">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
-        <v>100</v>
-      </c>
-      <c r="D3" s="11">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="C3" s="11">
         <v>50</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D3" s="12">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/gamedata/character.xlsx
+++ b/gamedata/character.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Cid</t>
   </si>
@@ -25,10 +25,112 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>主角</t>
-  </si>
-  <si>
-    <t>小怪1</t>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>绿头怪</t>
+  </si>
+  <si>
+    <t>红头怪</t>
+  </si>
+  <si>
+    <t>小蝙蝠</t>
+  </si>
+  <si>
+    <t>骷髅人</t>
+  </si>
+  <si>
+    <t>青头怪</t>
+  </si>
+  <si>
+    <t>骷髅士兵</t>
+  </si>
+  <si>
+    <t>初级法师</t>
+  </si>
+  <si>
+    <t>大蝙蝠</t>
+  </si>
+  <si>
+    <t>兽面人</t>
+  </si>
+  <si>
+    <t>骷髅队长</t>
+  </si>
+  <si>
+    <t>石头怪人</t>
+  </si>
+  <si>
+    <t>麻衣法师</t>
+  </si>
+  <si>
+    <t>初级卫兵</t>
+  </si>
+  <si>
+    <t>红蝙蝠</t>
+  </si>
+  <si>
+    <t>高级法师</t>
+  </si>
+  <si>
+    <t>怪王</t>
+  </si>
+  <si>
+    <t>白衣武士</t>
+  </si>
+  <si>
+    <t>金卫士</t>
+  </si>
+  <si>
+    <t>红衣法师</t>
+  </si>
+  <si>
+    <t>兽面武士</t>
+  </si>
+  <si>
+    <t>冥卫兵</t>
+  </si>
+  <si>
+    <t>高级卫兵</t>
+  </si>
+  <si>
+    <t>双手剑士</t>
+  </si>
+  <si>
+    <t>冥战士</t>
+  </si>
+  <si>
+    <t>金队长</t>
+  </si>
+  <si>
+    <t>灵法师</t>
+  </si>
+  <si>
+    <t>冥队长</t>
+  </si>
+  <si>
+    <t>灵武士</t>
+  </si>
+  <si>
+    <t>影子战士</t>
+  </si>
+  <si>
+    <t>红衣魔王</t>
+  </si>
+  <si>
+    <t>冥灵魔王</t>
+  </si>
+  <si>
+    <t>血影</t>
+  </si>
+  <si>
+    <t>魔龙</t>
   </si>
 </sst>
 </file>
@@ -38,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -55,13 +157,17 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="冬青黑体简体中文 W3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="13"/>
+      <name val="冬青黑体简体中文 W3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,12 +188,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -129,30 +241,31 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="11"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -174,29 +287,55 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -206,7 +345,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -222,41 +361,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,7 +427,10 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="ffe4dfec"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1341,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1364,9 +1515,15 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
@@ -1374,17 +1531,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6">
-        <v>100</v>
-      </c>
-      <c r="D2" s="7">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
       <c r="H2" s="8"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
@@ -1392,208 +1555,960 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15">
+        <v>100</v>
+      </c>
+      <c r="D4" s="15">
+        <v>20</v>
+      </c>
+      <c r="E4" s="15">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11">
+        <v>110</v>
+      </c>
+      <c r="D5" s="11">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15">
+        <v>200</v>
+      </c>
+      <c r="D6" s="15">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16">
+        <v>5</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>150</v>
+      </c>
+      <c r="D7" s="11">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11">
+        <v>8</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15">
+        <v>125</v>
+      </c>
+      <c r="D8" s="15">
         <v>50</v>
       </c>
-      <c r="D3" s="12">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="15">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16">
+        <v>7</v>
+      </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11">
+        <v>150</v>
+      </c>
+      <c r="D9" s="11">
+        <v>65</v>
+      </c>
+      <c r="E9" s="11">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12">
+        <v>8</v>
+      </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15">
+        <v>300</v>
+      </c>
+      <c r="D10" s="15">
+        <v>75</v>
+      </c>
+      <c r="E10" s="15">
+        <v>45</v>
+      </c>
+      <c r="F10" s="15">
+        <v>13</v>
+      </c>
+      <c r="G10" s="16">
+        <v>10</v>
+      </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11">
+        <v>400</v>
+      </c>
+      <c r="D11" s="11">
+        <v>90</v>
+      </c>
+      <c r="E11" s="11">
+        <v>50</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12">
+        <v>12</v>
+      </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15">
+        <v>500</v>
+      </c>
+      <c r="D12" s="15">
+        <v>115</v>
+      </c>
+      <c r="E12" s="15">
+        <v>65</v>
+      </c>
+      <c r="F12" s="15">
+        <v>15</v>
+      </c>
+      <c r="G12" s="16">
+        <v>15</v>
+      </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11">
+        <v>250</v>
+      </c>
+      <c r="D13" s="11">
+        <v>120</v>
+      </c>
+      <c r="E13" s="11">
+        <v>70</v>
+      </c>
+      <c r="F13" s="11">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12">
+        <v>17</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>450</v>
+      </c>
+      <c r="D14" s="15">
+        <v>150</v>
+      </c>
+      <c r="E14" s="15">
+        <v>90</v>
+      </c>
+      <c r="F14" s="15">
+        <v>22</v>
+      </c>
+      <c r="G14" s="16">
+        <v>19</v>
+      </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11">
+        <v>550</v>
+      </c>
+      <c r="D15" s="11">
+        <v>160</v>
+      </c>
+      <c r="E15" s="11">
+        <v>90</v>
+      </c>
+      <c r="F15" s="11">
+        <v>25</v>
+      </c>
+      <c r="G15" s="12">
+        <v>20</v>
+      </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15">
+        <v>100</v>
+      </c>
+      <c r="D16" s="15">
+        <v>200</v>
+      </c>
+      <c r="E16" s="15">
+        <v>110</v>
+      </c>
+      <c r="F16" s="15">
+        <v>30</v>
+      </c>
+      <c r="G16" s="16">
+        <v>25</v>
+      </c>
       <c r="H16" s="13"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11">
+        <v>700</v>
+      </c>
+      <c r="D17" s="11">
+        <v>250</v>
+      </c>
+      <c r="E17" s="11">
+        <v>125</v>
+      </c>
+      <c r="F17" s="11">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12">
+        <v>30</v>
+      </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1300</v>
+      </c>
+      <c r="D18" s="15">
+        <v>300</v>
+      </c>
+      <c r="E18" s="15">
+        <v>150</v>
+      </c>
+      <c r="F18" s="15">
+        <v>40</v>
+      </c>
+      <c r="G18" s="16">
+        <v>35</v>
+      </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11">
+        <v>850</v>
+      </c>
+      <c r="D19" s="11">
+        <v>350</v>
+      </c>
+      <c r="E19" s="11">
+        <v>200</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12">
+        <v>40</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15">
+        <v>500</v>
+      </c>
+      <c r="D20" s="15">
+        <v>400</v>
+      </c>
+      <c r="E20" s="15">
+        <v>260</v>
+      </c>
+      <c r="F20" s="15">
+        <v>47</v>
+      </c>
+      <c r="G20" s="16">
+        <v>45</v>
+      </c>
       <c r="H20" s="13"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11">
+        <v>900</v>
+      </c>
+      <c r="D21" s="11">
+        <v>450</v>
+      </c>
+      <c r="E21" s="11">
+        <v>330</v>
+      </c>
+      <c r="F21" s="11">
+        <v>50</v>
+      </c>
+      <c r="G21" s="12">
+        <v>50</v>
+      </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1250</v>
+      </c>
+      <c r="D22" s="15">
+        <v>500</v>
+      </c>
+      <c r="E22" s="15">
+        <v>400</v>
+      </c>
+      <c r="F22" s="15">
+        <v>55</v>
+      </c>
+      <c r="G22" s="16">
+        <v>55</v>
+      </c>
       <c r="H22" s="13"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D23" s="11">
+        <v>560</v>
+      </c>
+      <c r="E23" s="11">
+        <v>460</v>
+      </c>
+      <c r="F23" s="11">
+        <v>60</v>
+      </c>
+      <c r="G23" s="12">
+        <v>60</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D24" s="15">
+        <v>620</v>
+      </c>
+      <c r="E24" s="15">
+        <v>520</v>
+      </c>
+      <c r="F24" s="15">
+        <v>65</v>
+      </c>
+      <c r="G24" s="16">
+        <v>75</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="11">
+        <v>680</v>
+      </c>
+      <c r="E25" s="11">
+        <v>590</v>
+      </c>
+      <c r="F25" s="11">
+        <v>70</v>
+      </c>
+      <c r="G25" s="12">
+        <v>65</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C26" s="15">
+        <v>900</v>
+      </c>
+      <c r="D26" s="15">
+        <v>750</v>
+      </c>
+      <c r="E26" s="15">
+        <v>650</v>
+      </c>
+      <c r="F26" s="15">
+        <v>77</v>
+      </c>
+      <c r="G26" s="16">
+        <v>70</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D27" s="11">
+        <v>830</v>
+      </c>
+      <c r="E27" s="11">
+        <v>730</v>
+      </c>
+      <c r="F27" s="11">
+        <v>80</v>
+      </c>
+      <c r="G27" s="12">
+        <v>70</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D28" s="15">
+        <v>900</v>
+      </c>
+      <c r="E28" s="15">
+        <v>850</v>
+      </c>
+      <c r="F28" s="15">
+        <v>84</v>
+      </c>
+      <c r="G28" s="16">
+        <v>75</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D29" s="11">
+        <v>980</v>
+      </c>
+      <c r="E29" s="11">
+        <v>900</v>
+      </c>
+      <c r="F29" s="11">
+        <v>88</v>
+      </c>
+      <c r="G29" s="12">
+        <v>75</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="C30" s="15">
+        <v>3100</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1150</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1050</v>
+      </c>
+      <c r="F30" s="15">
+        <v>92</v>
+      </c>
+      <c r="G30" s="16">
+        <v>80</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="11">
+        <v>100</v>
+      </c>
+      <c r="G31" s="12">
+        <v>100</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="14">
+        <v>36</v>
+      </c>
+      <c r="C32" s="15">
+        <v>20000</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1333</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1333</v>
+      </c>
+      <c r="F32" s="15">
+        <v>133</v>
+      </c>
+      <c r="G32" s="16">
+        <v>133</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C33" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="11">
+        <v>280</v>
+      </c>
+      <c r="G33" s="12">
+        <v>220</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="C34" s="15">
+        <v>45000</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2550</v>
+      </c>
+      <c r="E34" s="15">
+        <v>2250</v>
+      </c>
+      <c r="F34" s="15">
+        <v>312</v>
+      </c>
+      <c r="G34" s="16">
+        <v>275</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="C35" s="11">
+        <v>3333</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1133</v>
+      </c>
+      <c r="F35" s="11">
+        <v>112</v>
+      </c>
+      <c r="G35" s="12">
+        <v>100</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1800</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1306</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1200</v>
+      </c>
+      <c r="F36" s="15">
+        <v>117</v>
+      </c>
+      <c r="G36" s="16">
+        <v>100</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D37" s="11">
+        <v>980</v>
+      </c>
+      <c r="E37" s="11">
+        <v>900</v>
+      </c>
+      <c r="F37" s="11">
+        <v>88</v>
+      </c>
+      <c r="G37" s="12">
+        <v>75</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C38" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1106</v>
+      </c>
+      <c r="E38" s="15">
+        <v>730</v>
+      </c>
+      <c r="F38" s="15">
+        <v>106</v>
+      </c>
+      <c r="G38" s="16">
+        <v>93</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D39" s="11">
+        <v>830</v>
+      </c>
+      <c r="E39" s="11">
+        <v>730</v>
+      </c>
+      <c r="F39" s="11">
+        <v>132</v>
+      </c>
+      <c r="G39" s="12">
+        <v>116</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15">
+        <v>60000</v>
+      </c>
+      <c r="D40" s="15">
+        <v>3400</v>
+      </c>
+      <c r="E40" s="15">
+        <v>3000</v>
+      </c>
+      <c r="F40" s="15">
+        <v>390</v>
+      </c>
+      <c r="G40" s="16">
+        <v>343</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11">
+        <v>99999</v>
+      </c>
+      <c r="D41" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="17">
+        <v>39</v>
+      </c>
+      <c r="C42" s="18">
+        <v>99999</v>
+      </c>
+      <c r="D42" s="18">
+        <v>9999</v>
+      </c>
+      <c r="E42" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
